--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3539997.912414496</v>
+        <v>3644023.964275003</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7667062.742498716</v>
+        <v>7630903.030217161</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.0402488768731</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>159.2282838500193</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609184</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.46084344268529</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>99.2202357091351</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.6368254889307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>278.4762549778816</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.1406215660494</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>204.0774091882689</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>199.6128900803416</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>240.2648719523406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.51165059784277</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.569119525008007</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>71.22475183604968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>280.0075071306259</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>56.03635866484524</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.6930519056948</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.07046444232026</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>72.77126028643525</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652591</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096038</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>54.63637568893569</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>93.59472601529512</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,13 +3559,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>75.12653431054498</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>32.84316668127781</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3164.769171255616</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4398,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>2789.050408260786</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>2789.050408260786</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>2638.93376884845</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>2638.93376884845</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>2638.93376884845</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3225.383361296912</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>2970.698873091026</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>2970.698873091026</v>
       </c>
       <c r="X4" t="n">
-        <v>148.7957966773201</v>
+        <v>2970.698873091026</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.7957966773201</v>
+        <v>2970.698873091026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>583.6045342045572</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>294.5016673302007</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302007</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3013.68597123693</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2760.155494510766</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2760.155494510766</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2407.386839240652</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2033.921080979572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.795585684488</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>121.5743897633377</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>121.5743897633377</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>916.2717335707021</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>724.5858493975284</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W10" t="n">
-        <v>342.3669689068678</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X10" t="n">
-        <v>342.3669689068678</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.5743897633377</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.721406539404</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>854.7852236114967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>704.6685841991609</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>556.7554906167678</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1694.625214721997</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1439.94072651611</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5504,46 +5506,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>399.701848174921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>232.5057488898009</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5978,19 +5980,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600109</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>378.6527890600109</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6206,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.62928111327</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2237.774446768175</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.172981791116</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.097755135313</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6536,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
@@ -6549,19 +6551,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6944,16 +6946,16 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6980,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7174,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,7 +7213,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2304.031991640193</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7624,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
         <v>1307.627092998424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>74.19629618688157</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6.176967258618276</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.25835418137865</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>23.83108638657407</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.30478226780143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>75.84421273177711</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>73.65209508333271</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.8997516910996</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672082.0150167346</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672082.0150167346</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672082.0150167346</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672082.0150167346</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672082.0150167346</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="K2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710697</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.981897825515366e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8.110789203992576e-11</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363171</v>
+        <v>3.981897825515366e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405262</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405253</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189208</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498548</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498545</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498545</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498549</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219694</v>
+        <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056228</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>324207.6941023514</v>
+        <v>324207.6941023521</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.1559097071</v>
+        <v>649620.1559097066</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.1559097067</v>
+        <v>649620.155909707</v>
       </c>
       <c r="H6" t="n">
         <v>649620.1559097066</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097068</v>
+        <v>649620.1559097065</v>
       </c>
       <c r="J6" t="n">
         <v>432088.9535124293</v>
       </c>
       <c r="K6" t="n">
-        <v>633360.404288537</v>
+        <v>649620.1559097068</v>
       </c>
       <c r="L6" t="n">
-        <v>652788.1222821688</v>
+        <v>649620.1559097068</v>
       </c>
       <c r="M6" t="n">
-        <v>567733.0943466568</v>
+        <v>564565.1279741947</v>
       </c>
       <c r="N6" t="n">
-        <v>652788.1222821686</v>
+        <v>649620.1559097067</v>
       </c>
       <c r="O6" t="n">
-        <v>652788.1222821688</v>
+        <v>649620.1559097066</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097065</v>
+        <v>649620.1559097068</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26697,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203964</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.977372281894208e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203964</v>
+        <v>4.977372281894208e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.2326428941344</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>168.5239746201156</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27518,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.37113673925201</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>186.9916024964778</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.6041432284823</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>107.761683678172</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>75.40832771011978</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>82.44558914832211</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>4.305080059278509</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.973066703713</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>90.24336431647802</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>84.36303314503932</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421828</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338212</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357562001</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921322</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,31 +33736,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,7 +34456,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394704</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728667</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.943450977802</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,7 +38104,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3644023.964275003</v>
+        <v>3640011.35426101</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217161</v>
+        <v>7630903.03021716</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.0402488768731</v>
+        <v>94.81275980261283</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386238</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>99.2202357091351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.4762549778816</v>
+        <v>129.4714269367817</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>149.3991884271809</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0774091882689</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>224.7411810187678</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>199.6128900803416</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>54.45803047044364</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.569119525008007</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310427</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>280.0075071306259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883607</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934429</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>78.34975387299224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>29.24923305751697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>72.77126028643525</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.63637568893569</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>93.59472601529512</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>75.12653431054498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.84316668127781</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.21070476472222</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="C2" t="n">
-        <v>782.3358610545008</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2789.050408260786</v>
+        <v>739.238540987944</v>
       </c>
       <c r="C4" t="n">
-        <v>2789.050408260786</v>
+        <v>570.3023580600371</v>
       </c>
       <c r="D4" t="n">
-        <v>2638.93376884845</v>
+        <v>420.1857186477014</v>
       </c>
       <c r="E4" t="n">
-        <v>2638.93376884845</v>
+        <v>272.2726250653083</v>
       </c>
       <c r="F4" t="n">
-        <v>2638.93376884845</v>
+        <v>125.3826775673979</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="U4" t="n">
-        <v>3225.383361296912</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="V4" t="n">
-        <v>2970.698873091026</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="W4" t="n">
-        <v>2970.698873091026</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="X4" t="n">
-        <v>2970.698873091026</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="Y4" t="n">
-        <v>2970.698873091026</v>
+        <v>920.8870058181838</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2862.546497866149</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139987</v>
+        <v>2862.546497866149</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697682</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.1511359853714</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452389</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="W7" t="n">
-        <v>403.1511359853714</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="X7" t="n">
-        <v>403.1511359853714</v>
+        <v>438.21296671428</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.1511359853714</v>
+        <v>217.4203875707499</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>2232.598233480552</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1863.63571654014</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1505.37001793339</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1119.581765335146</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>708.5958605455382</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>293.5234103905347</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3013.68597123693</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2760.155494510766</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.155494510766</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.386839240652</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="X8" t="n">
-        <v>2033.921080979572</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.921080979572</v>
+        <v>2619.198073544674</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>290.456410946397</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>121.5202280184901</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>916.2717335707021</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>724.5858493975284</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>502.8192339670544</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>502.8192339670544</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>502.8192339670544</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>213.4020639300938</v>
+        <v>692.8974549201669</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>472.1048757766367</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1694.625214721997</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.94072651611</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.52355647915</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6028,13 +6028,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6129,22 +6129,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>166.039752924184</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>72.11969353038515</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.84421273177711</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.65209508333271</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>105.8997516910996</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>113.5907959652914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.2232578818469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055057</v>
@@ -26352,7 +26352,7 @@
         <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
-        <v>3.981897825515366e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.110789203992576e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>3.981897825515366e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16046.58397189192</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="I4" t="n">
         <v>16046.58397189203</v>
       </c>
-      <c r="F4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189208</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189197</v>
-      </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.749021969</v>
       </c>
       <c r="C6" t="n">
+        <v>578458.9967056223</v>
+      </c>
+      <c r="D6" t="n">
         <v>578458.9967056228</v>
       </c>
-      <c r="D6" t="n">
-        <v>578458.9967056232</v>
-      </c>
       <c r="E6" t="n">
-        <v>324207.6941023521</v>
+        <v>323860.3148479938</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.1559097066</v>
+        <v>649272.77665535</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.155909707</v>
+        <v>649272.77665535</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097066</v>
+        <v>649272.7766553501</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097065</v>
+        <v>649272.7766553499</v>
       </c>
       <c r="J6" t="n">
-        <v>432088.9535124293</v>
+        <v>431741.5742580724</v>
       </c>
       <c r="K6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553496</v>
       </c>
       <c r="L6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="M6" t="n">
-        <v>564565.1279741947</v>
+        <v>564217.7487198376</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097067</v>
+        <v>649272.7766553496</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.1559097066</v>
+        <v>649272.7766553498</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097068</v>
+        <v>649272.7766553499</v>
       </c>
     </row>
   </sheetData>
@@ -26697,13 +26697,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.977372281894208e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>227.2326428941344</v>
+        <v>270.4601319683947</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.7439527351658</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>186.9916024964778</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.761683678172</v>
+        <v>256.7665117192719</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.43279175475644</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>82.44558914832211</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>69.86658336855271</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.305080059278509</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>94.15744254776871</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.36303314503932</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421828</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357562001</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>448.9178583921322</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728667</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>314.943450977802</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3640011.35426101</v>
+        <v>3641771.884563795</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.03021716</v>
+        <v>7630903.030217161</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261283</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247499</v>
+        <v>18.81721868247644</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386238</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.4714269367817</v>
+        <v>129.4714269367835</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.3991884271809</v>
+        <v>149.3991884271811</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>259.2714515328008</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7411810187678</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36569740310427</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>240.0633098883607</v>
+        <v>26.07046444232049</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>180.0179497934429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180637</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180637</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180637</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811061</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999791</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387279</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332724</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601574</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927755</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064296</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431605</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199862</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471661</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266128</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501174</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.238540987944</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600371</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477014</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653083</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775673979</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4552,10 +4552,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,52 +4564,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866149</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866149</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158129</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122974</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>666.2025176122974</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X7" t="n">
-        <v>438.21296671428</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.4203875707499</v>
+        <v>217.4203875707503</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480552</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.63571654014</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.37001793339</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335146</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455382</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905347</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520486</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520486</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544674</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.41198488674</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.456410946397</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184901</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218338</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218338</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201669</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766367</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706077</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427008</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797191</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443776</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008474</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,49 +5983,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6363,25 +6363,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,13 +6408,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,28 +6934,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>166.039752924184</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>46.45968844823028</v>
+        <v>260.4525338942705</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>72.11969353038515</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="13">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
@@ -26337,25 +26337,25 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073561</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,10 +26438,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.749021969</v>
+        <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056223</v>
+        <v>578458.9967056229</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056228</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="E6" t="n">
-        <v>323860.3148479938</v>
+        <v>324172.9561769155</v>
       </c>
       <c r="F6" t="n">
-        <v>649272.77665535</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="G6" t="n">
-        <v>649272.77665535</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="H6" t="n">
-        <v>649272.7766553501</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="I6" t="n">
-        <v>649272.7766553499</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="J6" t="n">
-        <v>431741.5742580724</v>
+        <v>432054.2155869936</v>
       </c>
       <c r="K6" t="n">
-        <v>649272.7766553496</v>
+        <v>649585.4179842708</v>
       </c>
       <c r="L6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="M6" t="n">
-        <v>564217.7487198376</v>
+        <v>564530.3900487592</v>
       </c>
       <c r="N6" t="n">
-        <v>649272.7766553496</v>
+        <v>649585.4179842707</v>
       </c>
       <c r="O6" t="n">
-        <v>649272.7766553498</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="P6" t="n">
-        <v>649272.7766553499</v>
+        <v>649585.4179842708</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,40 +26962,40 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483764</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683947</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48334686148155e-12</v>
+        <v>1.005417971100542e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351658</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7665117192719</v>
+        <v>256.7665117192701</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.43279175475644</v>
+        <v>30.43279175475615</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>106.0014402382068</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>69.86658336855271</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776871</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>193.8557877999648</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31633,7 +31633,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31682,16 +31682,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31700,19 +31700,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.959892919255</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
         <v>157.2826706286436</v>
@@ -35108,13 +35108,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35345,13 +35345,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359217</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
